--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
@@ -520,7 +520,7 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3694329507713184</v>
+        <v>0.3694329494838015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99830382857671</v>
+        <v>0.9983038269360573</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4652015470497493</v>
+        <v>-0.4652015470543536</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6458914122284227</v>
+        <v>-0.6458914122405494</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80763679944473</v>
+        <v>-47.80761937369478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5573518019472942</v>
+        <v>0.5573518019022105</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5225679219562193</v>
+        <v>0.5225679220907508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7641188734588852</v>
+        <v>0.7641188735158745</v>
       </c>
       <c r="M2" t="n">
-        <v>0.642201722568974</v>
+        <v>0.6422017199765734</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -570,7 +570,7 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3579305072282082</v>
+        <v>0.3579305072448689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8810055940765729</v>
+        <v>0.8810055940559142</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3085431250907504</v>
+        <v>-0.3085431251618616</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6833757971351512</v>
+        <v>-0.6833757971094011</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.1462255426772</v>
+        <v>-43.14622557403036</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410777068295206</v>
+        <v>0.5410777066202382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4916271059238992</v>
+        <v>0.4916271061158151</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7310699130217091</v>
+        <v>0.7310699129959882</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4893146111789181</v>
+        <v>0.4893146111806932</v>
       </c>
       <c r="N3" t="n">
         <v>86.33333333333333</v>
@@ -620,7 +620,7 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.344044327547798</v>
+        <v>0.3440443284603508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8600973029143578</v>
+        <v>0.8600973034666924</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2329571303698307</v>
+        <v>-0.2329571306089141</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6400746383570777</v>
+        <v>-0.6400746383872615</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68503496624452</v>
+        <v>-37.68503496879943</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5341894421346561</v>
+        <v>0.5341894422128338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997862692526847</v>
+        <v>0.4997862701244386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7315433302325921</v>
+        <v>0.7315433308844582</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4521664697446865</v>
+        <v>0.4521664697450679</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -670,7 +670,7 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313421420251748</v>
+        <v>0.3134214201635895</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7923424093220683</v>
+        <v>0.7923424090903093</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1884625922133031</v>
+        <v>-0.1884625918330206</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5783821866317377</v>
+        <v>-0.5783821867279736</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98401933336363</v>
+        <v>-32.98401933015647</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5447701960123205</v>
+        <v>0.5447701960051228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5006896377744573</v>
+        <v>0.5006896374233462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7399284093804773</v>
+        <v>0.7399284091330687</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2830778206929263</v>
+        <v>0.283077820693207</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -720,7 +720,7 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2834625186479797</v>
+        <v>0.2834625187009352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7717089551552446</v>
+        <v>0.7717089551300679</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05053952488566438</v>
+        <v>-0.05053952486684921</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5524418849169402</v>
+        <v>-0.5524418853559041</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40983351777965</v>
+        <v>-28.4098335242593</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5390622868415139</v>
+        <v>0.5390622867544849</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4991468719317751</v>
+        <v>0.4991468719885641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7346702024351771</v>
+        <v>0.7346702024092181</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2359148008549584</v>
+        <v>0.2359148008558608</v>
       </c>
       <c r="N6" t="n">
         <v>87</v>
@@ -770,7 +770,7 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2951024895317562</v>
+        <v>0.2951024894186304</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7738981661813437</v>
+        <v>0.7738981661897398</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02974457671012942</v>
+        <v>-0.02974457688412713</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3915654883868645</v>
+        <v>-0.391565488310808</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86775391091315</v>
+        <v>-22.86775401229214</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5361164355797374</v>
+        <v>0.5361164356316949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4930037230475205</v>
+        <v>0.4930037230054645</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7283392053031922</v>
+        <v>0.728339205312858</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2614213927595112</v>
+        <v>0.2614213927568656</v>
       </c>
       <c r="N7" t="n">
         <v>87</v>
@@ -820,7 +820,7 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2618784994087068</v>
+        <v>0.261878499449297</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7382036408029008</v>
+        <v>0.7382036408632925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03829161130988723</v>
+        <v>0.03829161117804839</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.244474850934561</v>
+        <v>-0.2444748509359442</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20837364429338</v>
+        <v>-18.20837363922245</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4976729420436074</v>
+        <v>0.4976729420960331</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4662748812041757</v>
+        <v>0.4662748812435507</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6819872368080953</v>
+        <v>0.6819872368735078</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2824908349574348</v>
+        <v>0.2824908349574051</v>
       </c>
       <c r="N8" t="n">
         <v>83.33333333333333</v>
@@ -870,7 +870,7 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2647974371924793</v>
+        <v>0.2647974373044657</v>
       </c>
       <c r="F9" t="n">
-        <v>0.749713172803614</v>
+        <v>0.7497131728124901</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009887648333877527</v>
+        <v>0.009887648395874749</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2404089343639081</v>
+        <v>-0.2404089343539037</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.52116564498728</v>
+        <v>-13.52116639618493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5030890420901944</v>
+        <v>0.5030890420873</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4439084756801377</v>
+        <v>0.4439084756232666</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6710036005097663</v>
+        <v>0.6710036004685098</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3341665745275841</v>
+        <v>0.3341665746314018</v>
       </c>
       <c r="N9" t="n">
         <v>66</v>
@@ -920,7 +920,7 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.203246677518177</v>
+        <v>0.2032466775022916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6545653607492198</v>
+        <v>0.6545653607509401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0697454782664219</v>
+        <v>0.06974547826215864</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1387982664881899</v>
+        <v>-0.1387982665010365</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.404866789583785</v>
+        <v>-8.4048673398409</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4795351001809562</v>
+        <v>0.4795351001829849</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3880976376181843</v>
+        <v>0.3880976376770067</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6169219117584185</v>
+        <v>0.616921911796776</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2187239531130662</v>
+        <v>0.2187239530096449</v>
       </c>
       <c r="N10" t="n">
         <v>51</v>
@@ -970,7 +970,7 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2407646525594416</v>
+        <v>0.240764652535601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6408152324502622</v>
+        <v>0.6408152324475869</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03524418781614713</v>
+        <v>-0.03524418780312999</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05779066989272982</v>
+        <v>-0.05779066989024765</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162544359893883</v>
+        <v>-4.162544364945773</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4450505049275852</v>
+        <v>0.4450505049146024</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3273556607007672</v>
+        <v>0.3273556607150989</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5524780150061483</v>
+        <v>0.5524780150041632</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3245067111375812</v>
+        <v>0.3245067111361079</v>
       </c>
       <c r="N11" t="n">
         <v>29</v>
@@ -1020,7 +1020,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8538574628479849</v>
+        <v>0.8538574628745913</v>
       </c>
       <c r="F12" t="n">
-        <v>1.389595833107236</v>
+        <v>1.389595833084475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01807536971633302</v>
+        <v>0.01807536981090152</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0006114703530405071</v>
+        <v>-0.0006114703069025987</v>
       </c>
       <c r="I12" t="n">
-        <v>2.792443110569925</v>
+        <v>2.792443443671765</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4974175322354924</v>
+        <v>0.4974175322170247</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4376061304602571</v>
+        <v>0.437606130464236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.662513056004164</v>
+        <v>0.6625130559929254</v>
       </c>
       <c r="M12" t="n">
-        <v>1.22149154393088</v>
+        <v>1.22149154391113</v>
       </c>
       <c r="N12" t="n">
         <v>86.66666666666667</v>
@@ -1070,7 +1070,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="B13" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243742543309954</v>
+        <v>0.2437425433792841</v>
       </c>
       <c r="F13" t="n">
-        <v>0.68732335652677</v>
+        <v>0.6873233565783542</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01025735847468923</v>
+        <v>-0.01025735848063884</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.01542737968998154</v>
+        <v>-0.01542737967620648</v>
       </c>
       <c r="I13" t="n">
-        <v>6.882243701216871</v>
+        <v>6.882243475509802</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4940560442770077</v>
+        <v>0.4940560442916189</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4462672080873072</v>
+        <v>0.4462672081408541</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6657680822334615</v>
+        <v>0.665768082280209</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1706821646122253</v>
+        <v>0.1706821646377162</v>
       </c>
       <c r="N13" t="n">
         <v>82.33333333333333</v>
@@ -1120,7 +1120,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2644352770333329</v>
+        <v>0.2644352771148299</v>
       </c>
       <c r="F14" t="n">
-        <v>0.716439315462981</v>
+        <v>0.7164393154644291</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01490295506836977</v>
+        <v>-0.01490295508841655</v>
       </c>
       <c r="H14" t="n">
         <v>0.02668943411934303</v>
       </c>
       <c r="I14" t="n">
-        <v>12.2941871839062</v>
+        <v>12.29418718127211</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5213689386822723</v>
+        <v>0.5213689386940633</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474496475655739</v>
+        <v>0.4744964756449879</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7049628013686426</v>
+        <v>0.7049628013701005</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1277080060909757</v>
+        <v>0.127708006090825</v>
       </c>
       <c r="N14" t="n">
         <v>86</v>
@@ -1170,7 +1170,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2721814889605811</v>
+        <v>0.2721814889639132</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7246924556079399</v>
+        <v>0.7246924555353139</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04943590896309994</v>
+        <v>-0.04943590905526207</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04113079040763523</v>
+        <v>0.04113079035132235</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00708440150044</v>
+        <v>17.00710186105163</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5122924918270476</v>
+        <v>0.5122924918626005</v>
       </c>
       <c r="K15" t="n">
-        <v>0.496296620106208</v>
+        <v>0.4962966200674679</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7132700866578124</v>
+        <v>0.7132700866563958</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1280679257572031</v>
+        <v>0.1280679253679703</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1220,7 +1220,7 @@
         <v>21.90000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1229,31 +1229,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2748700687288074</v>
+        <v>0.2748700687140564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7406040875200044</v>
+        <v>0.7406040875179626</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1080439522483706</v>
+        <v>-0.1080439519744042</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02435961965958692</v>
+        <v>0.02435961947621005</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348460542504</v>
+        <v>22.14348471151862</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5275406360429566</v>
+        <v>0.5275406360953262</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4954467019461435</v>
+        <v>0.4954467018880422</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7237194608829817</v>
+        <v>0.7237194608814925</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1571629583844729</v>
+        <v>0.1571629583812731</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1270,7 +1270,7 @@
         <v>26.90000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1279,31 +1279,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.282621488187238</v>
+        <v>0.2826214883730456</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7539212907332021</v>
+        <v>0.7539212910134512</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1686652106865078</v>
+        <v>-0.1686652107780825</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04348353216880696</v>
+        <v>0.04348353214743383</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84532561650938</v>
+        <v>27.84532288491843</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5411950078057663</v>
+        <v>0.5411950079529787</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4916870139207818</v>
+        <v>0.4916870139963372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7312181469184761</v>
+        <v>0.7312181470797602</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1835875187102335</v>
+        <v>0.1835875192217451</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1320,7 +1320,7 @@
         <v>31.90000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1329,31 +1329,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2857128693092308</v>
+        <v>0.2857128696952811</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7581659532253235</v>
+        <v>0.7581659534554785</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2128307443973275</v>
+        <v>-0.2128307441399026</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03217625955456545</v>
+        <v>0.03217625927849591</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63278328483829</v>
+        <v>32.63276593349078</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410547601136597</v>
+        <v>0.5410547603474684</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4869007104810723</v>
+        <v>0.4869007103688891</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7278962878200402</v>
+        <v>0.7278962879208942</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2115099187048379</v>
+        <v>0.2115099193145234</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1370,7 +1370,7 @@
         <v>36.90000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1379,31 +1379,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2496752560932276</v>
+        <v>0.2496752549320211</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7555538459397745</v>
+        <v>0.7555538448824658</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2741783046816219</v>
+        <v>-0.2741783046714848</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07084085203861908</v>
+        <v>0.07084085213352864</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69307351031708</v>
+        <v>37.69309004095294</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5297601031484894</v>
+        <v>0.5297601032149251</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4618727613866446</v>
+        <v>0.461872761248127</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7029211876025868</v>
+        <v>0.7029211875634135</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2767795989895015</v>
+        <v>0.2767795962419354</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1420,7 +1420,7 @@
         <v>41.90000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1429,31 +1429,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2820956854527183</v>
+        <v>0.2820956853628623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7726528415550152</v>
+        <v>0.7726528415011927</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2052075953336991</v>
+        <v>-0.20520759521321</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1993124583318983</v>
+        <v>0.1993124582297507</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43904041203197</v>
+        <v>42.43904040485148</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5285290056192294</v>
+        <v>0.5285290055298583</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4720537543774717</v>
+        <v>0.472053754396442</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7087189698215942</v>
+        <v>0.7087189697665247</v>
       </c>
       <c r="M20" t="n">
-        <v>0.306684500722506</v>
+        <v>0.3066845007229721</v>
       </c>
       <c r="N20" t="n">
         <v>87</v>
@@ -1470,7 +1470,7 @@
         <v>46.90000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1479,31 +1479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3300797480469548</v>
+        <v>0.3300797486388904</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8360733173128935</v>
+        <v>0.8360733178083956</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2853772020269124</v>
+        <v>-0.2853772018690013</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1101470946648912</v>
+        <v>0.110147094428991</v>
       </c>
       <c r="I21" t="n">
-        <v>47.7373599598378</v>
+        <v>47.73737586310463</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5182003417952363</v>
+        <v>0.5182003417486727</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4722740770128191</v>
+        <v>0.4722740768951236</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7014998212033113</v>
+        <v>0.7014998210886193</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4537722695278951</v>
+        <v>0.4537722706699222</v>
       </c>
       <c r="N21" t="n">
         <v>86.66666666666667</v>
@@ -1520,7 +1520,7 @@
         <v>51.90000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1529,31 +1529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4175725030171875</v>
+        <v>0.4175725031442469</v>
       </c>
       <c r="F22" t="n">
-        <v>0.993296240093168</v>
+        <v>0.9932962400361531</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3110882021219936</v>
+        <v>-0.3110882019058749</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1971740793770588</v>
+        <v>0.1971740793524835</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27193910939133</v>
+        <v>53.27193727877913</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5423428319431467</v>
+        <v>0.5423428319286113</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5247630535684974</v>
+        <v>0.5247630533923773</v>
       </c>
       <c r="L22" t="n">
-        <v>0.754821414638457</v>
+        <v>0.7548214145041369</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6453518758714157</v>
+        <v>0.6453518759482443</v>
       </c>
       <c r="N22" t="n">
         <v>87</v>

--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3694329494838015</v>
+        <v>0.3694329510073697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9983038269360573</v>
+        <v>0.9983038287519245</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4652015470543536</v>
+        <v>-0.4652015469412542</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6458914122405494</v>
+        <v>-0.6458914121761458</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80761937369478</v>
+        <v>-47.8076368016267</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5573518019022105</v>
+        <v>0.5573518019655014</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5225679220907508</v>
+        <v>0.5225679222712866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7641188735158745</v>
+        <v>0.7641188736879787</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6422017199765734</v>
+        <v>0.642201722569261</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3579305072448689</v>
+        <v>0.3579305073496171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8810055940559142</v>
+        <v>0.8810055941746682</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3085431251618616</v>
+        <v>-0.3085431249526588</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6833757971094011</v>
+        <v>-0.6833757973497351</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14622557403036</v>
+        <v>-43.14622547056856</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410777066202382</v>
+        <v>0.5410777068427833</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4916271061158151</v>
+        <v>0.4916271060890924</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7310699129959882</v>
+        <v>0.7310699131421913</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4893146111806932</v>
+        <v>0.4893146111748121</v>
       </c>
       <c r="N3" t="n">
         <v>86.33333333333333</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3440443284603508</v>
+        <v>0.3440443268194219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8600973034666924</v>
+        <v>0.8600973022848323</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2329571306089141</v>
+        <v>-0.2329571304147748</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6400746383872615</v>
+        <v>-0.6400746379583589</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68503496879943</v>
+        <v>-37.68503257913624</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5341894422128338</v>
+        <v>0.5341894419247363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997862701244386</v>
+        <v>0.4997862684561722</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7315433308844582</v>
+        <v>0.7315433295363966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4521664697450679</v>
+        <v>0.4521664696770116</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3134214201635895</v>
+        <v>0.3134214204205526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7923424090903093</v>
+        <v>0.7923424091664767</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1884625918330206</v>
+        <v>-0.1884625920928139</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5783821867279736</v>
+        <v>-0.5783821866476918</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98401933015647</v>
+        <v>-32.98401933427753</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5447701960051228</v>
+        <v>0.5447701959449843</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5006896374233462</v>
+        <v>0.5006896376035991</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7399284091330687</v>
+        <v>0.7399284092129076</v>
       </c>
       <c r="M5" t="n">
-        <v>0.283077820693207</v>
+        <v>0.2830778206928313</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2834625187009352</v>
+        <v>0.2834625186612627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7717089551300679</v>
+        <v>0.7717089551535534</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05053952486684921</v>
+        <v>-0.05053952511548232</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5524418853559041</v>
+        <v>-0.5524418852401709</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.4098335242593</v>
+        <v>-28.40983352247239</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5390622867544849</v>
+        <v>0.5390622866991862</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4991468719885641</v>
+        <v>0.4991468720839483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7346702024092181</v>
+        <v>0.7346702024339989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2359148008558608</v>
+        <v>0.2359148008555573</v>
       </c>
       <c r="N6" t="n">
         <v>87</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2951024894186304</v>
+        <v>0.2951024896485349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7738981661897398</v>
+        <v>0.7738981661622044</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02974457688412713</v>
+        <v>-0.02974457667022534</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.391565488310808</v>
+        <v>-0.391565488593244</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86775401229214</v>
+        <v>-22.86775384765926</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5361164356316949</v>
+        <v>0.5361164356465031</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4930037230054645</v>
+        <v>0.4930037229435888</v>
       </c>
       <c r="L7" t="n">
-        <v>0.728339205312858</v>
+        <v>0.7283392052819373</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2614213927568656</v>
+        <v>0.2614213927612734</v>
       </c>
       <c r="N7" t="n">
         <v>87</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.261878499449297</v>
+        <v>0.2618784994819423</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7382036408632925</v>
+        <v>0.7382036408324062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03829161117804839</v>
+        <v>0.03829161118623384</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2444748509359442</v>
+        <v>-0.2444748509190807</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20837363922245</v>
+        <v>-18.20837364140293</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4976729420960331</v>
+        <v>0.4976729420841101</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4662748812435507</v>
+        <v>0.4662748812074966</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6819872368735078</v>
+        <v>0.6819872368398582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2824908349574051</v>
+        <v>0.282490834957405</v>
       </c>
       <c r="N8" t="n">
         <v>83.33333333333333</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2647974373044657</v>
+        <v>0.2647974372119457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7497131728124901</v>
+        <v>0.7497131727616563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009887648395874749</v>
+        <v>0.009887648418403691</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2404089343539037</v>
+        <v>-0.2404089343232082</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.52116639618493</v>
+        <v>-13.52116603650651</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5030890420873</v>
+        <v>0.5030890420728465</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4439084756232666</v>
+        <v>0.443908475591285</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6710036004685098</v>
+        <v>0.6710036004371162</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3341665746314018</v>
+        <v>0.3341665745816998</v>
       </c>
       <c r="N9" t="n">
         <v>66</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2032466775022916</v>
+        <v>0.2032466775958262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6545653607509401</v>
+        <v>0.6545653608050529</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06974547826215864</v>
+        <v>0.06974547831801677</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1387982665010365</v>
+        <v>-0.1387982664699052</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.4048673398409</v>
+        <v>-8.404866275116573</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4795351001829849</v>
+        <v>0.4795351002023736</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3880976376770067</v>
+        <v>0.3880976376312456</v>
       </c>
       <c r="L10" t="n">
-        <v>0.616921911796776</v>
+        <v>0.616921911783033</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2187239530096449</v>
+        <v>0.2187239532103733</v>
       </c>
       <c r="N10" t="n">
         <v>51</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.240764652535601</v>
+        <v>0.2407646525483399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6408152324475869</v>
+        <v>0.6408152324250292</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03524418780312999</v>
+        <v>-0.03524418780240998</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05779066989024765</v>
+        <v>-0.05779066985830165</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162544364945773</v>
+        <v>-4.162544368883505</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4450505049146024</v>
+        <v>0.4450505048918652</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3273556607150989</v>
+        <v>0.3273556607025799</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5524780150041632</v>
+        <v>0.5524780149784322</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3245067111361079</v>
+        <v>0.3245067111348492</v>
       </c>
       <c r="N11" t="n">
         <v>29</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8538574628745913</v>
+        <v>0.8538574628529226</v>
       </c>
       <c r="F12" t="n">
-        <v>1.389595833084475</v>
+        <v>1.389595833086348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01807536981090152</v>
+        <v>0.01807536977899342</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0006114703069025987</v>
+        <v>-0.000611470358914327</v>
       </c>
       <c r="I12" t="n">
-        <v>2.792443443671765</v>
+        <v>2.792443242289266</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4974175322170247</v>
+        <v>0.4974175322083932</v>
       </c>
       <c r="K12" t="n">
-        <v>0.437606130464236</v>
+        <v>0.4376061304453474</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6625130559929254</v>
+        <v>0.662513055973935</v>
       </c>
       <c r="M12" t="n">
-        <v>1.22149154391113</v>
+        <v>1.221491543923386</v>
       </c>
       <c r="N12" t="n">
         <v>86.66666666666667</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2437425433792841</v>
+        <v>0.2437425434286034</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6873233565783542</v>
+        <v>0.6873233565879943</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01025735848063884</v>
+        <v>-0.01025735849502022</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.01542737967620648</v>
+        <v>-0.01542737971247258</v>
       </c>
       <c r="I13" t="n">
-        <v>6.882243475509802</v>
+        <v>6.88224449495138</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4940560442916189</v>
+        <v>0.4940560442876385</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4462672081408541</v>
+        <v>0.4462672082044274</v>
       </c>
       <c r="L13" t="n">
-        <v>0.665768082280209</v>
+        <v>0.6657680823198572</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1706821646377162</v>
+        <v>0.1706821645219593</v>
       </c>
       <c r="N13" t="n">
         <v>82.33333333333333</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2644352771148299</v>
+        <v>0.2644352770662188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7164393154644291</v>
+        <v>0.7164393154625609</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01490295508841655</v>
+        <v>-0.01490295511066127</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02668943411934303</v>
+        <v>0.02668943410043312</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29418718127211</v>
+        <v>12.29418718273293</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5213689386940633</v>
+        <v>0.5213689387019802</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4744964756449879</v>
+        <v>0.4744964756335061</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7049628013701005</v>
+        <v>0.7049628013682269</v>
       </c>
       <c r="M14" t="n">
-        <v>0.127708006090825</v>
+        <v>0.1277080060908752</v>
       </c>
       <c r="N14" t="n">
         <v>86</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2721814889639132</v>
+        <v>0.2721814888924318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7246924555353139</v>
+        <v>0.7246924555368904</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04943590905526207</v>
+        <v>-0.04943590896958009</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04113079035132235</v>
+        <v>0.04113079040026454</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00710186105163</v>
+        <v>17.00708440087956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5122924918626005</v>
+        <v>0.5122924917578756</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4962966200674679</v>
+        <v>0.4962966200740079</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7132700866563958</v>
+        <v>0.713270086585701</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1280679253679703</v>
+        <v>0.1280679257572605</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1229,31 +1229,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2748700687140564</v>
+        <v>0.2748700688235555</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7406040875179626</v>
+        <v>0.7406040876286076</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1080439519744042</v>
+        <v>-0.1080439521278057</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02435961947621005</v>
+        <v>0.02435961970110156</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348471151862</v>
+        <v>22.14348343016519</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5275406360953262</v>
+        <v>0.5275406361624604</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4954467018880422</v>
+        <v>0.4954467019700077</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7237194608814925</v>
+        <v>0.7237194609863558</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1571629583812731</v>
+        <v>0.1571629584207626</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1279,31 +1279,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2826214883730456</v>
+        <v>0.2826214883232308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7539212910134512</v>
+        <v>0.753921290923978</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1686652107780825</v>
+        <v>-0.1686652108059926</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04348353214743383</v>
+        <v>0.04348353227737789</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84532288491843</v>
+        <v>27.84532288696721</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5411950079529787</v>
+        <v>0.5411950078097784</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4916870139963372</v>
+        <v>0.4916870140178234</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7312181470797602</v>
+        <v>0.7312181469875444</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1835875192217451</v>
+        <v>0.1835875192213038</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1329,31 +1329,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2857128696952811</v>
+        <v>0.2857128694775682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7581659534554785</v>
+        <v>0.7581659533076429</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2128307441399026</v>
+        <v>-0.2128307440603218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03217625927849591</v>
+        <v>0.03217625930511758</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63276593349078</v>
+        <v>32.63276593576963</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410547603474684</v>
+        <v>0.5410547603303205</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4869007103688891</v>
+        <v>0.4869007101568203</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7278962879208942</v>
+        <v>0.727896287764799</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2115099193145234</v>
+        <v>0.2115099193145102</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1379,31 +1379,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2496752549320211</v>
+        <v>0.2496752551359791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7555538448824658</v>
+        <v>0.7555538451104974</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2741783046714848</v>
+        <v>-0.274178304592624</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07084085213352864</v>
+        <v>0.07084085190047062</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69309004095294</v>
+        <v>37.69309234560615</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5297601032149251</v>
+        <v>0.5297601032823746</v>
       </c>
       <c r="K19" t="n">
-        <v>0.461872761248127</v>
+        <v>0.4618727617716052</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7029211875634135</v>
+        <v>0.7029211879606024</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2767795962419354</v>
+        <v>0.2767795958601317</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1429,31 +1429,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2820956853628623</v>
+        <v>0.2820956854304453</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7726528415011927</v>
+        <v>0.7726528415292505</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.20520759521321</v>
+        <v>-0.2052075951676026</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1993124582297507</v>
+        <v>0.1993124584377976</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43904040485148</v>
+        <v>42.43904042131552</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5285290055298583</v>
+        <v>0.5285290056197678</v>
       </c>
       <c r="K20" t="n">
-        <v>0.472053754396442</v>
+        <v>0.4720537543357953</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7087189697665247</v>
+        <v>0.7087189697949809</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3066845007229721</v>
+        <v>0.3066845007219114</v>
       </c>
       <c r="N20" t="n">
         <v>87</v>
@@ -1479,31 +1479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3300797486388904</v>
+        <v>0.3300797479849531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8360733178083956</v>
+        <v>0.8360733172703547</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2853772018690013</v>
+        <v>-0.2853772021727536</v>
       </c>
       <c r="H21" t="n">
-        <v>0.110147094428991</v>
+        <v>0.1101470947212988</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73737586310463</v>
+        <v>47.73735996783196</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5182003417486727</v>
+        <v>0.5182003417446563</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4722740768951236</v>
+        <v>0.4722740769862909</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7014998210886193</v>
+        <v>0.7014998211518272</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4537722706699222</v>
+        <v>0.4537722695284721</v>
       </c>
       <c r="N21" t="n">
         <v>86.66666666666667</v>
@@ -1529,31 +1529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4175725031442469</v>
+        <v>0.4175725032482278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9932962400361531</v>
+        <v>0.9932962401588306</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3110882019058749</v>
+        <v>-0.3110882019518613</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1971740793524835</v>
+        <v>0.1971740793005476</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27193727877913</v>
+        <v>53.27193645173458</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5423428319286113</v>
+        <v>0.5423428319769706</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5247630533923773</v>
+        <v>0.5247630535330398</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7548214145041369</v>
+        <v>0.7548214146379916</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6453518759482443</v>
+        <v>0.6453518759827008</v>
       </c>
       <c r="N22" t="n">
         <v>87</v>

--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_idpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3694329510073697</v>
+        <v>0.3694329508773012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9983038287519245</v>
+        <v>0.9983038286857826</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4652015469412542</v>
+        <v>-0.4652015467951855</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6458914121761458</v>
+        <v>-0.6458914123402527</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.8076368016267</v>
+        <v>-47.80763680537304</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5573518019655014</v>
+        <v>0.5573518020547581</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5225679222712866</v>
+        <v>0.5225679220516046</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7641188736879787</v>
+        <v>0.7641188736001743</v>
       </c>
       <c r="M2" t="n">
-        <v>0.642201722569261</v>
+        <v>0.6422017225699119</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3579305073496171</v>
+        <v>0.3579305073948904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8810055941746682</v>
+        <v>0.8810055942129215</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3085431249526588</v>
+        <v>-0.3085431248636799</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6833757973497351</v>
+        <v>-0.6833757974035658</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14622547056856</v>
+        <v>-43.14622508844898</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410777068427833</v>
+        <v>0.5410777068282955</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4916271060890924</v>
+        <v>0.4916271061905368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7310699131421913</v>
+        <v>0.7310699132002633</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4893146111748121</v>
+        <v>0.4893146111528122</v>
       </c>
       <c r="N3" t="n">
         <v>86.33333333333333</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3440443268194219</v>
+        <v>0.344044327988083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8600973022848323</v>
+        <v>0.8600973030025895</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2329571304147748</v>
+        <v>-0.2329571303487796</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6400746379583589</v>
+        <v>-0.6400746380878862</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68503257913624</v>
+        <v>-37.6850321229964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5341894419247363</v>
+        <v>0.5341894425249761</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4997862684561722</v>
+        <v>0.4997862690634184</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7315433295363966</v>
+        <v>0.7315433303871371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4521664696770116</v>
+        <v>0.4521664696640423</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3134214204205526</v>
+        <v>0.3134214204592682</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7923424091664767</v>
+        <v>0.792342409308163</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1884625920928139</v>
+        <v>-0.1884625916599134</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5783821866476918</v>
+        <v>-0.5783821868939564</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98401933427753</v>
+        <v>-32.98401618429099</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5447701959449843</v>
+        <v>0.5447701960739991</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5006896376035991</v>
+        <v>0.5006896374943175</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7399284092129076</v>
+        <v>0.739928409236656</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2830778206928313</v>
+        <v>0.2830778210432651</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2834625186612627</v>
+        <v>0.2834625184615737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7717089551535534</v>
+        <v>0.7717089549222597</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05053952511548232</v>
+        <v>-0.05053952491931568</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5524418852401709</v>
+        <v>-0.5524418856461466</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40983352247239</v>
+        <v>-28.40982390906193</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5390622866991862</v>
+        <v>0.5390622867411682</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4991468720839483</v>
+        <v>0.4991468721674844</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7346702024339989</v>
+        <v>0.7346702025215585</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2359148008555573</v>
+        <v>0.2359147998272629</v>
       </c>
       <c r="N6" t="n">
         <v>87</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2951024896485349</v>
+        <v>0.2951024895305241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7738981661622044</v>
+        <v>0.7738981661831176</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02974457667022534</v>
+        <v>-0.02974457669036686</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.391565488593244</v>
+        <v>-0.3915654884350867</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86775384765926</v>
+        <v>-22.86775395439116</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5361164356465031</v>
+        <v>0.5361164355420794</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4930037229435888</v>
+        <v>0.4930037230927862</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7283392052819373</v>
+        <v>0.7283392053056916</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2614213927612734</v>
+        <v>0.2614213927583582</v>
       </c>
       <c r="N7" t="n">
         <v>87</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2618784994819423</v>
+        <v>0.2618784994722558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7382036408324062</v>
+        <v>0.7382036408066219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03829161118623384</v>
+        <v>0.03829161127462536</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2444748509190807</v>
+        <v>-0.2444748508027791</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20837364140293</v>
+        <v>-18.20837364574098</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4976729420841101</v>
+        <v>0.4976729419797925</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4662748812074966</v>
+        <v>0.4662748812774509</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6819872368398582</v>
+        <v>0.6819872368120544</v>
       </c>
       <c r="M8" t="n">
-        <v>0.282490834957405</v>
+        <v>0.2824908349574331</v>
       </c>
       <c r="N8" t="n">
         <v>83.33333333333333</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2647974372119457</v>
+        <v>0.2647974372373078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7497131727616563</v>
+        <v>0.7497131727936992</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009887648418403691</v>
+        <v>0.009887648459425691</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2404089343232082</v>
+        <v>-0.2404089344285391</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.52116603650651</v>
+        <v>-13.52116596662374</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5030890420728465</v>
+        <v>0.5030890420366793</v>
       </c>
       <c r="K9" t="n">
-        <v>0.443908475591285</v>
+        <v>0.4439084756918972</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6710036004371162</v>
+        <v>0.6710036004772014</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3341665745816998</v>
+        <v>0.3341665745720552</v>
       </c>
       <c r="N9" t="n">
         <v>66</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2032466775958262</v>
+        <v>0.2032466774837137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6545653608050529</v>
+        <v>0.6545653607569498</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06974547831801677</v>
+        <v>0.06974547820950268</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1387982664699052</v>
+        <v>-0.1387982664758169</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.404866275116573</v>
+        <v>-8.404867352368948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4795351002023736</v>
+        <v>0.4795351002290968</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3880976376312456</v>
+        <v>0.3880976376320378</v>
       </c>
       <c r="L10" t="n">
-        <v>0.616921911783033</v>
+        <v>0.6169219118040851</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2187239532103733</v>
+        <v>0.218723953007328</v>
       </c>
       <c r="N10" t="n">
         <v>51</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2407646525483399</v>
+        <v>0.2407646525535676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6408152324250292</v>
+        <v>0.6408152324479844</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03524418780240998</v>
+        <v>-0.03524418784896474</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05779066985830165</v>
+        <v>-0.05779066984420448</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162544368883505</v>
+        <v>-4.162544364758564</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4450505048918652</v>
+        <v>0.4450505049140693</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3273556607025799</v>
+        <v>0.3273556607155039</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5524780149784322</v>
+        <v>0.5524780150039991</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3245067111348492</v>
+        <v>0.3245067111360667</v>
       </c>
       <c r="N11" t="n">
         <v>29</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8538574628529226</v>
+        <v>0.8538574628452742</v>
       </c>
       <c r="F12" t="n">
-        <v>1.389595833086348</v>
+        <v>1.389595833108163</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01807536977899342</v>
+        <v>0.01807536973522398</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.000611470358914327</v>
+        <v>-0.0006114703497814844</v>
       </c>
       <c r="I12" t="n">
-        <v>2.792443242289266</v>
+        <v>2.792443157890693</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4974175322083932</v>
+        <v>0.4974175322348144</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4376061304453474</v>
+        <v>0.4376061304716588</v>
       </c>
       <c r="L12" t="n">
-        <v>0.662513055973935</v>
+        <v>0.662513056011207</v>
       </c>
       <c r="M12" t="n">
-        <v>1.221491543923386</v>
+        <v>1.221491543928189</v>
       </c>
       <c r="N12" t="n">
         <v>86.66666666666667</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2437425434286034</v>
+        <v>0.2437425434496201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6873233565879943</v>
+        <v>0.6873233566190988</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01025735849502022</v>
+        <v>-0.01025735849297386</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.01542737971247258</v>
+        <v>-0.0154273797213591</v>
       </c>
       <c r="I13" t="n">
-        <v>6.88224449495138</v>
+        <v>6.882243474676065</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4940560442876385</v>
+        <v>0.4940560442832505</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4462672082044274</v>
+        <v>0.4462672082128687</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6657680823198572</v>
+        <v>0.6657680823222391</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1706821645219593</v>
+        <v>0.1706821646377881</v>
       </c>
       <c r="N13" t="n">
         <v>82.33333333333333</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2644352770662188</v>
+        <v>0.2644352770750919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7164393154625609</v>
+        <v>0.7164393154565305</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01490295511066127</v>
+        <v>-0.01490295513023436</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02668943410043312</v>
+        <v>0.02668943415886815</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29418718273293</v>
+        <v>12.29418910949621</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5213689387019802</v>
+        <v>0.5213689386935659</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4744964756335061</v>
+        <v>0.4744964756265707</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7049628013682269</v>
+        <v>0.7049628013573627</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1277080060908752</v>
+        <v>0.1277080061170705</v>
       </c>
       <c r="N14" t="n">
         <v>86</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2721814888924318</v>
+        <v>0.2721814889670894</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7246924555368904</v>
+        <v>0.7246924555906235</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04943590896958009</v>
+        <v>-0.04943590903062992</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04113079040026454</v>
+        <v>0.04113079041718493</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00708440087956</v>
+        <v>17.00708440348575</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5122924917578756</v>
+        <v>0.5122924918419648</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4962966200740079</v>
+        <v>0.4962966200656344</v>
       </c>
       <c r="L15" t="n">
-        <v>0.713270086585701</v>
+        <v>0.7132700866402981</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1280679257572605</v>
+        <v>0.1280679257572333</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1229,31 +1229,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2748700688235555</v>
+        <v>0.2748700687065586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7406040876286076</v>
+        <v>0.7406040874967204</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1080439521278057</v>
+        <v>-0.1080439521182939</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02435961970110156</v>
+        <v>0.0243596196355611</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348343016519</v>
+        <v>22.14348427064093</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5275406361624604</v>
+        <v>0.5275406360561764</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4954467019700077</v>
+        <v>0.4954467018939067</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7237194609863558</v>
+        <v>0.7237194608568918</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1571629584207626</v>
+        <v>0.1571629583947529</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1279,31 +1279,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2826214883232308</v>
+        <v>0.2826214881624998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.753921290923978</v>
+        <v>0.7539212908530614</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1686652108059926</v>
+        <v>-0.1686652109129909</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04348353227737789</v>
+        <v>0.04348353240974726</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84532288696721</v>
+        <v>27.84532288281937</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5411950078097784</v>
+        <v>0.541195007607798</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4916870140178234</v>
+        <v>0.4916870141335062</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7312181469875444</v>
+        <v>0.7312181469143205</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1835875192213038</v>
+        <v>0.183587519221984</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1329,31 +1329,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2857128694775682</v>
+        <v>0.2857128690302445</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7581659533076429</v>
+        <v>0.7581659530023521</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2128307440603218</v>
+        <v>-0.2128307443784744</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03217625930511758</v>
+        <v>0.03217625947454886</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63276593576963</v>
+        <v>32.63277255922883</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410547603303205</v>
+        <v>0.5410547599619306</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4869007101568203</v>
+        <v>0.4869007101720313</v>
       </c>
       <c r="L18" t="n">
-        <v>0.727896287764799</v>
+        <v>0.7278962875006324</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2115099193145102</v>
+        <v>0.2115099190806325</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1379,31 +1379,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2496752551359791</v>
+        <v>0.2496752559272306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7555538451104974</v>
+        <v>0.7555538458129273</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.274178304592624</v>
+        <v>-0.2741783043897499</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07084085190047062</v>
+        <v>0.07084085209675095</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69309234560615</v>
+        <v>37.69307350677273</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5297601032823746</v>
+        <v>0.5297601032436917</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4618727617716052</v>
+        <v>0.4618727610652046</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7029211879606024</v>
+        <v>0.7029211874676692</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2767795958601317</v>
+        <v>0.2767795989904135</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1429,31 +1429,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2820956854304453</v>
+        <v>0.2820956854468512</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7726528415292505</v>
+        <v>0.7726528415911403</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2052075951676026</v>
+        <v>-0.2052075950357638</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1993124584377976</v>
+        <v>0.1993124582632314</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43904042131552</v>
+        <v>42.43904041975838</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5285290056197678</v>
+        <v>0.5285290058760713</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4720537543357953</v>
+        <v>0.4720537541538933</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7087189697949809</v>
+        <v>0.7087189698655764</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3066845007219114</v>
+        <v>0.3066845007220436</v>
       </c>
       <c r="N20" t="n">
         <v>87</v>
@@ -1479,31 +1479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3300797479849531</v>
+        <v>0.3300797486275284</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8360733172703547</v>
+        <v>0.8360733178447068</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2853772021727536</v>
+        <v>-0.285377202026704</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1101470947212988</v>
+        <v>0.1101470943753308</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73735996783196</v>
+        <v>47.73737295135444</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5182003417446563</v>
+        <v>0.5182003418549436</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4722740769862909</v>
+        <v>0.4722740770256315</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7014998211518272</v>
+        <v>0.7014998212595686</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4537722695284721</v>
+        <v>0.4537722704597995</v>
       </c>
       <c r="N21" t="n">
         <v>86.66666666666667</v>
@@ -1529,31 +1529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4175725032482278</v>
+        <v>0.4175725032766862</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9932962401588306</v>
+        <v>0.9932962401414335</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3110882019518613</v>
+        <v>-0.3110882020009361</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1971740793005476</v>
+        <v>0.1971740794187061</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27193645173458</v>
+        <v>53.27193643335008</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5423428319769706</v>
+        <v>0.5423428320502387</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5247630535330398</v>
+        <v>0.524763053424267</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7548214146379916</v>
+        <v>0.7548214146128996</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6453518759827008</v>
+        <v>0.6453518759834974</v>
       </c>
       <c r="N22" t="n">
         <v>87</v>
